--- a/walleye_population_data.xlsx
+++ b/walleye_population_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\mat3450\projet_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E54A5-8420-4C1B-A202-340A30FF7B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CF451-73D1-4946-AF01-2E2E11DCFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{622BC92F-CDA0-43A9-869A-575E01E76271}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
